--- a/src/test/input/used/TLC/api_catalog_TLC.xlsx
+++ b/src/test/input/used/TLC/api_catalog_TLC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C105D10E-98EC-4923-831B-243AC05F4ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12909153-C3C2-48CE-ACC0-F84A96858F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="3670" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2347,10 +2347,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
       <selection activeCell="F91" sqref="A91:XFD93"/>
     </sheetView>
   </sheetViews>
@@ -2414,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2785,8 +2784,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2839,7 +2837,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2892,7 +2890,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2945,7 +2943,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +2996,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3051,7 +3049,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3102,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3157,8 +3155,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3211,7 +3208,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3317,7 +3314,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3476,7 +3473,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3582,8 +3579,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3689,7 +3685,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3795,7 +3791,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3848,7 +3844,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -4007,8 +4003,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -4061,7 +4056,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -4114,7 +4109,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -4167,7 +4162,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -4220,7 +4215,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -4273,7 +4268,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -4379,7 +4374,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -4432,8 +4427,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -4486,7 +4480,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -4539,7 +4533,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -4592,7 +4586,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -4645,7 +4639,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4698,7 +4692,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -4751,7 +4745,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -4804,7 +4798,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -4857,7 +4851,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -4910,8 +4904,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -4964,7 +4957,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -5017,7 +5010,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -5070,7 +5063,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -5123,7 +5116,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5169,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -5229,7 +5222,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -5282,7 +5275,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -5335,8 +5328,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>23</v>
       </c>
@@ -5389,7 +5381,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -5442,7 +5434,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -5495,7 +5487,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -5548,7 +5540,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -5601,7 +5593,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -5654,7 +5646,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -5707,7 +5699,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -5760,7 +5752,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -5813,7 +5805,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -5866,8 +5858,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -5920,7 +5911,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -5973,7 +5964,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -6026,7 +6017,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -6079,7 +6070,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -6132,7 +6123,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -6185,7 +6176,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -6238,7 +6229,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -6291,7 +6282,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -6344,8 +6335,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>25</v>
       </c>
@@ -6398,7 +6388,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>25</v>
       </c>
@@ -6451,7 +6441,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
@@ -6504,7 +6494,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -6557,7 +6547,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -6610,7 +6600,6 @@
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>26</v>
@@ -7724,8 +7713,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -7778,7 +7766,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -7831,7 +7819,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -7884,7 +7872,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -7937,7 +7925,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -7990,8 +7978,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -8044,7 +8031,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -8097,7 +8084,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -8150,7 +8137,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -8203,7 +8190,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -8256,7 +8243,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -8309,7 +8296,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -8362,7 +8349,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -8415,7 +8402,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -8468,7 +8455,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -8521,7 +8508,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -8574,7 +8561,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -8627,7 +8614,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -8680,7 +8667,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -8733,7 +8720,6 @@
         <v>363</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>29</v>
@@ -9582,8 +9568,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>30</v>
       </c>
@@ -9636,7 +9621,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>30</v>
       </c>
@@ -9689,7 +9674,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>30</v>
       </c>
@@ -9742,7 +9727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>30</v>
       </c>
@@ -9795,7 +9780,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>30</v>
       </c>
@@ -9848,7 +9833,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>30</v>
       </c>
@@ -9901,7 +9886,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>30</v>
       </c>
@@ -9954,7 +9939,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>30</v>
       </c>
@@ -10007,7 +9992,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>30</v>
       </c>
@@ -10060,7 +10045,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>30</v>
       </c>
@@ -10113,7 +10098,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -10166,7 +10151,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -10219,7 +10204,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>30</v>
       </c>
@@ -10272,7 +10257,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>30</v>
       </c>
@@ -10325,7 +10310,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>30</v>
       </c>
@@ -10378,8 +10363,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -10432,7 +10416,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -10485,7 +10469,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -10538,7 +10522,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -10591,7 +10575,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -10644,7 +10628,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>31</v>
       </c>
@@ -10697,7 +10681,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>31</v>
       </c>
@@ -10750,7 +10734,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>31</v>
       </c>
@@ -10803,7 +10787,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>31</v>
       </c>
@@ -10856,7 +10840,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -10909,7 +10893,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>31</v>
       </c>
@@ -10962,7 +10946,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>31</v>
       </c>
@@ -11015,7 +10999,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>31</v>
       </c>
@@ -11068,7 +11052,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -11121,7 +11105,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -11174,7 +11158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>31</v>
       </c>
@@ -11227,7 +11211,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -11280,7 +11264,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>31</v>
       </c>
@@ -11333,7 +11317,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>31</v>
       </c>
@@ -11386,7 +11370,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>31</v>
       </c>
@@ -11439,8 +11423,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="188" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>32</v>
       </c>
@@ -11493,7 +11476,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="189" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>32</v>
       </c>
@@ -11546,7 +11529,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>32</v>
       </c>
@@ -11599,7 +11582,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>32</v>
       </c>
@@ -11652,7 +11635,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>32</v>
       </c>
@@ -11705,7 +11688,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>32</v>
       </c>
@@ -11758,7 +11741,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>32</v>
       </c>
@@ -11811,7 +11794,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>32</v>
       </c>
@@ -11864,7 +11847,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>32</v>
       </c>
@@ -11917,7 +11900,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>32</v>
       </c>
@@ -11970,7 +11953,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>32</v>
       </c>
@@ -12023,7 +12006,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>32</v>
       </c>
@@ -12076,7 +12059,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>32</v>
       </c>
@@ -12129,7 +12112,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>32</v>
       </c>
@@ -12182,7 +12165,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>32</v>
       </c>
@@ -12235,7 +12218,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>32</v>
       </c>
@@ -12288,7 +12271,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -12341,7 +12324,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>32</v>
       </c>
@@ -12394,7 +12377,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -12447,7 +12430,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>32</v>
       </c>
@@ -12500,7 +12483,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>32</v>
       </c>
@@ -12553,7 +12536,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>32</v>
       </c>
@@ -12606,7 +12589,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -12659,7 +12642,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -12712,7 +12695,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -12765,8 +12748,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="214" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>33</v>
       </c>
@@ -12819,7 +12801,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>33</v>
       </c>
@@ -12872,7 +12854,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>33</v>
       </c>
@@ -12925,7 +12907,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>33</v>
       </c>
@@ -12978,7 +12960,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>33</v>
       </c>
@@ -13031,7 +13013,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>33</v>
       </c>
@@ -13084,7 +13066,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -13137,7 +13119,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -13190,7 +13172,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>33</v>
       </c>
@@ -13243,7 +13225,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -13296,7 +13278,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>33</v>
       </c>
@@ -13349,7 +13331,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>33</v>
       </c>
@@ -13402,7 +13384,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -13455,7 +13437,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -13508,7 +13490,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -13561,7 +13543,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -13614,7 +13596,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -13667,7 +13649,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>33</v>
       </c>
@@ -13720,7 +13702,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>33</v>
       </c>
@@ -13773,7 +13755,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>33</v>
       </c>
@@ -13826,7 +13808,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>33</v>
       </c>
@@ -13879,7 +13861,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>33</v>
       </c>
@@ -13932,7 +13914,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>33</v>
       </c>
@@ -13985,7 +13967,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>33</v>
       </c>
@@ -14038,8 +14020,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="239" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
         <v>34</v>
       </c>
@@ -14092,7 +14073,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="240" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
         <v>34</v>
       </c>
@@ -14145,7 +14126,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="241" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>34</v>
       </c>
@@ -14198,7 +14179,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="242" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5" t="s">
         <v>34</v>
       </c>
@@ -14251,7 +14232,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="243" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5" t="s">
         <v>34</v>
       </c>
@@ -14304,7 +14285,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="244" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
         <v>34</v>
       </c>
@@ -14357,7 +14338,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="245" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
         <v>34</v>
       </c>
@@ -14410,7 +14391,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="246" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
         <v>34</v>
       </c>
@@ -14463,7 +14444,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="247" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
         <v>34</v>
       </c>
@@ -14516,7 +14497,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="248" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
         <v>34</v>
       </c>
@@ -14569,7 +14550,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="249" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
         <v>34</v>
       </c>
@@ -14622,7 +14603,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
         <v>34</v>
       </c>
@@ -14675,7 +14656,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="251" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
         <v>34</v>
       </c>
@@ -14728,7 +14709,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="252" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>34</v>
       </c>
@@ -14781,7 +14762,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="253" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>34</v>
       </c>
@@ -14834,7 +14815,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="254" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
         <v>34</v>
       </c>
@@ -14887,7 +14868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="255" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>34</v>
       </c>
@@ -14940,7 +14921,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="256" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>34</v>
       </c>
@@ -14993,7 +14974,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="257" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
         <v>34</v>
       </c>
@@ -15046,7 +15027,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="258" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
         <v>34</v>
       </c>
@@ -15099,7 +15080,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="259" spans="1:17" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
         <v>34</v>
       </c>
@@ -15152,7 +15133,6 @@
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="261" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>35</v>
@@ -16107,8 +16087,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>36</v>
       </c>
@@ -16161,7 +16140,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>36</v>
       </c>
@@ -16214,7 +16193,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>36</v>
       </c>
@@ -16267,7 +16246,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>36</v>
       </c>
@@ -16320,7 +16299,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>36</v>
       </c>
@@ -16373,7 +16352,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>36</v>
       </c>
@@ -16426,7 +16405,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>36</v>
       </c>
@@ -16479,7 +16458,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>36</v>
       </c>
@@ -16532,7 +16511,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>36</v>
       </c>
@@ -16585,7 +16564,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>36</v>
       </c>
@@ -16638,7 +16617,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="290" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>36</v>
       </c>
@@ -16691,7 +16670,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>36</v>
       </c>
@@ -16744,8 +16723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="293" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>37</v>
       </c>
@@ -16798,7 +16776,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="294" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>37</v>
       </c>
@@ -16851,7 +16829,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="295" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>37</v>
       </c>
@@ -16904,7 +16882,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="296" spans="1:17" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>37</v>
       </c>
@@ -16957,7 +16935,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>37</v>
       </c>
@@ -17010,7 +16988,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>37</v>
       </c>
@@ -17063,7 +17041,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="299" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>37</v>
       </c>
@@ -17116,7 +17094,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>37</v>
       </c>
@@ -17169,7 +17147,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>37</v>
       </c>
@@ -17222,7 +17200,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>37</v>
       </c>
@@ -17275,7 +17253,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>37</v>
       </c>
@@ -17328,7 +17306,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>37</v>
       </c>
@@ -17381,7 +17359,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>37</v>
       </c>
@@ -17434,7 +17412,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>37</v>
       </c>
@@ -17487,7 +17465,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>37</v>
       </c>
@@ -17540,7 +17518,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>37</v>
       </c>
@@ -17593,7 +17571,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>37</v>
       </c>
@@ -17646,7 +17624,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>37</v>
       </c>
@@ -17699,8 +17677,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>38</v>
       </c>
@@ -17753,7 +17730,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>38</v>
       </c>
@@ -17806,7 +17783,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>38</v>
       </c>
@@ -17859,7 +17836,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>38</v>
       </c>
@@ -17912,7 +17889,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>38</v>
       </c>
@@ -17965,7 +17942,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>38</v>
       </c>
@@ -18018,7 +17995,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>38</v>
       </c>
@@ -18071,7 +18048,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>38</v>
       </c>
@@ -18124,7 +18101,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>38</v>
       </c>
@@ -18177,7 +18154,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>38</v>
       </c>
@@ -18230,7 +18207,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>38</v>
       </c>
@@ -18283,7 +18260,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="323" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>38</v>
       </c>
@@ -18336,7 +18313,6 @@
         <v>363</v>
       </c>
     </row>
-    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="325" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>39</v>
@@ -18920,8 +18896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -18974,7 +18949,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>40</v>
       </c>
@@ -19027,7 +19002,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>40</v>
       </c>
@@ -19080,7 +19055,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>40</v>
       </c>
@@ -19133,7 +19108,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>40</v>
       </c>
@@ -19186,7 +19161,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>40</v>
       </c>
@@ -19239,7 +19214,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>40</v>
       </c>
@@ -19292,7 +19267,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="344" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>40</v>
       </c>
@@ -19345,7 +19320,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>40</v>
       </c>
@@ -19398,7 +19373,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>40</v>
       </c>
@@ -19451,7 +19426,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>40</v>
       </c>
@@ -19504,7 +19479,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>40</v>
       </c>
@@ -19557,7 +19532,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -19610,7 +19585,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -19663,7 +19638,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>40</v>
       </c>
@@ -19716,7 +19691,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>40</v>
       </c>
@@ -19769,7 +19744,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>40</v>
       </c>
@@ -19822,7 +19797,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>40</v>
       </c>
@@ -19875,7 +19850,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>40</v>
       </c>
@@ -19928,7 +19903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="356" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -19981,7 +19956,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -20034,7 +20009,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -20087,7 +20062,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="359" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>40</v>
       </c>
@@ -20141,16 +20116,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q359" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Enquire CULM"/>
-        <filter val="Enquire limit usage"/>
-        <filter val="Enquire Smart Account Limit usage"/>
-        <filter val="Fetch Different ID Transfer Limit Change Record List"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q359" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
